--- a/REGULAR/OJT/NEW DONE/BAYOT, ANISIA.xlsx
+++ b/REGULAR/OJT/NEW DONE/BAYOT, ANISIA.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="378">
   <si>
     <t>PERIOD</t>
   </si>
@@ -269,9 +269,6 @@
     <t>CALAMITY2/4/11/13/14/2020</t>
   </si>
   <si>
-    <t>BAYOT ANISIA</t>
-  </si>
-  <si>
     <t>SL(4-0-000</t>
   </si>
   <si>
@@ -1185,6 +1182,12 @@
   </si>
   <si>
     <t>VL(5-0-00)</t>
+  </si>
+  <si>
+    <t>BAYOT, ANISIA PARRA</t>
+  </si>
+  <si>
+    <t>5/18,19/2023</t>
   </si>
 </sst>
 </file>
@@ -1885,8 +1888,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K559" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K559"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K561" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K561"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2215,12 +2218,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K559"/>
+  <dimension ref="A2:K561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A508" activePane="bottomLeft"/>
-      <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="B523" sqref="B523"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B525" sqref="B525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>71</v>
+        <v>376</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
@@ -2387,7 +2390,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.566000000000088</v>
+        <v>64.816000000000088</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2397,14 +2400,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98.20799999999997</v>
+        <v>96.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="13"/>
@@ -2529,7 +2532,7 @@
         <v>36739</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
@@ -2575,7 +2578,7 @@
         <v>36800</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -2621,7 +2624,7 @@
         <v>36861</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
@@ -2642,7 +2645,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="13"/>
@@ -2663,7 +2666,7 @@
         <v>36892</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -2688,7 +2691,7 @@
         <v>36923</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -2713,7 +2716,7 @@
         <v>36951</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="13">
         <v>1.25</v>
@@ -2735,7 +2738,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39">
@@ -2758,7 +2761,7 @@
         <v>36982</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -2783,7 +2786,7 @@
         <v>37012</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -2808,7 +2811,7 @@
         <v>37043</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -2826,13 +2829,13 @@
       <c r="I28" s="13"/>
       <c r="J28" s="11"/>
       <c r="K28" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39">
@@ -2855,7 +2858,7 @@
         <v>37073</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -2880,7 +2883,7 @@
         <v>37104</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="13">
         <v>1.25</v>
@@ -2905,7 +2908,7 @@
         <v>37135</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -2930,7 +2933,7 @@
         <v>37165</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -2952,7 +2955,7 @@
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39">
@@ -2968,7 +2971,7 @@
       <c r="I34" s="13"/>
       <c r="J34" s="11"/>
       <c r="K34" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2977,7 +2980,7 @@
         <v>37196</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -3002,7 +3005,7 @@
         <v>37226</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -3020,13 +3023,13 @@
       <c r="I36" s="13"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39">
@@ -3045,7 +3048,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3066,7 +3069,7 @@
         <v>37257</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="13">
         <v>1.25</v>
@@ -3091,7 +3094,7 @@
         <v>37288</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -3116,7 +3119,7 @@
         <v>37316</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="13">
         <v>1.25</v>
@@ -3140,7 +3143,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
@@ -3154,13 +3157,13 @@
       <c r="I42" s="13"/>
       <c r="J42" s="11"/>
       <c r="K42" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
@@ -3185,7 +3188,7 @@
         <v>37347</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
@@ -3233,7 +3236,7 @@
         <v>37408</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
@@ -3281,7 +3284,7 @@
         <v>37469</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -3305,7 +3308,7 @@
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3351,7 +3354,7 @@
         <v>37530</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="13">
         <v>1.25</v>
@@ -3378,7 +3381,7 @@
         <v>37561</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
@@ -3396,13 +3399,13 @@
       <c r="I52" s="13"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="39">
@@ -3427,7 +3430,7 @@
         <v>37591</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -3445,13 +3448,13 @@
       <c r="I54" s="13"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39">
@@ -3467,12 +3470,12 @@
       <c r="I55" s="13"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3493,7 +3496,7 @@
         <v>37622</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" s="13">
         <v>1.25</v>
@@ -3517,7 +3520,7 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -3533,13 +3536,13 @@
       <c r="I58" s="13"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="39">
@@ -3585,7 +3588,7 @@
         <v>37681</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
@@ -3612,7 +3615,7 @@
         <v>37712</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="13">
         <v>1.25</v>
@@ -3660,7 +3663,7 @@
         <v>37773</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="13">
         <v>1.25</v>
@@ -3678,7 +3681,7 @@
       <c r="I64" s="13"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3729,7 +3732,7 @@
         <v>37865</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -3751,7 +3754,7 @@
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="39">
@@ -3774,7 +3777,7 @@
         <v>37895</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -3798,7 +3801,7 @@
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -3820,7 +3823,7 @@
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39">
@@ -3843,7 +3846,7 @@
         <v>37926</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -3861,13 +3864,13 @@
       <c r="I72" s="13"/>
       <c r="J72" s="11"/>
       <c r="K72" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="39">
@@ -3883,13 +3886,13 @@
       <c r="I73" s="13"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -3903,13 +3906,13 @@
       <c r="I74" s="13"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39">
@@ -3932,7 +3935,7 @@
         <v>37956</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
@@ -3953,7 +3956,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -3974,7 +3977,7 @@
         <v>37987</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -3999,7 +4002,7 @@
         <v>38018</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
@@ -4023,7 +4026,7 @@
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39">
@@ -4046,7 +4049,7 @@
         <v>38047</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -4070,7 +4073,7 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39">
@@ -4093,7 +4096,7 @@
         <v>38078</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
@@ -4117,7 +4120,7 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39">
@@ -4140,7 +4143,7 @@
         <v>38108</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
@@ -4164,7 +4167,7 @@
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39">
@@ -4187,7 +4190,7 @@
         <v>38139</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
@@ -4212,7 +4215,7 @@
         <v>38169</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -4237,7 +4240,7 @@
         <v>38200</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C89" s="13">
         <v>1.25</v>
@@ -4261,7 +4264,7 @@
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39">
@@ -4284,7 +4287,7 @@
         <v>38231</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C91" s="13">
         <v>1.25</v>
@@ -4309,7 +4312,7 @@
         <v>38261</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="13">
         <v>1.25</v>
@@ -4327,13 +4330,13 @@
       <c r="I92" s="13"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="39">
@@ -4356,7 +4359,7 @@
         <v>38292</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C94" s="13">
         <v>1.25</v>
@@ -4381,7 +4384,7 @@
         <v>38322</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
@@ -4399,13 +4402,13 @@
       <c r="I95" s="13"/>
       <c r="J95" s="11"/>
       <c r="K95" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4419,13 +4422,13 @@
       <c r="I96" s="13"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39">
@@ -4444,7 +4447,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4465,7 +4468,7 @@
         <v>38353</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C99" s="13">
         <v>1.25</v>
@@ -4489,7 +4492,7 @@
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4511,7 +4514,7 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="39">
@@ -4534,7 +4537,7 @@
         <v>38384</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C102" s="13">
         <v>1.25</v>
@@ -4559,7 +4562,7 @@
         <v>38412</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C103" s="13">
         <v>1.25</v>
@@ -4583,7 +4586,7 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -4605,7 +4608,7 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -4621,13 +4624,13 @@
       <c r="I105" s="13"/>
       <c r="J105" s="11"/>
       <c r="K105" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="39">
@@ -4650,7 +4653,7 @@
         <v>38443</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -4666,13 +4669,13 @@
       <c r="I107" s="13"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="39">
@@ -4688,13 +4691,13 @@
       <c r="I108" s="13"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -4708,13 +4711,13 @@
       <c r="I109" s="13"/>
       <c r="J109" s="11"/>
       <c r="K109" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="39">
@@ -4737,7 +4740,7 @@
         <v>38473</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C111" s="13">
         <v>1.25</v>
@@ -4762,7 +4765,7 @@
         <v>38504</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C112" s="13">
         <v>1.25</v>
@@ -4787,7 +4790,7 @@
         <v>38534</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
@@ -4805,13 +4808,13 @@
       <c r="I113" s="13"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -4827,13 +4830,13 @@
       <c r="I114" s="13"/>
       <c r="J114" s="11"/>
       <c r="K114" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39">
@@ -4856,7 +4859,7 @@
         <v>38565</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
@@ -4881,7 +4884,7 @@
         <v>38596</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C117" s="13">
         <v>1.25</v>
@@ -4906,7 +4909,7 @@
         <v>38626</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C118" s="13">
         <v>1.25</v>
@@ -4931,7 +4934,7 @@
         <v>38657</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C119" s="13">
         <v>1.25</v>
@@ -4956,7 +4959,7 @@
         <v>38687</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -4974,13 +4977,13 @@
       <c r="I120" s="13"/>
       <c r="J120" s="11"/>
       <c r="K120" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39">
@@ -4999,7 +5002,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5020,7 +5023,7 @@
         <v>38718</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C123" s="13">
         <v>1.25</v>
@@ -5044,7 +5047,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="39">
@@ -5067,7 +5070,7 @@
         <v>38749</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -5092,7 +5095,7 @@
         <v>38777</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C126" s="13">
         <v>1.25</v>
@@ -5117,7 +5120,7 @@
         <v>38808</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C127" s="13">
         <v>1.25</v>
@@ -5142,7 +5145,7 @@
         <v>38838</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
@@ -5166,7 +5169,7 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="39">
@@ -5189,7 +5192,7 @@
         <v>38869</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C130" s="13">
         <v>1.25</v>
@@ -5214,7 +5217,7 @@
         <v>38899</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C131" s="13">
         <v>1.25</v>
@@ -5238,7 +5241,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5254,13 +5257,13 @@
       <c r="I132" s="13"/>
       <c r="J132" s="11"/>
       <c r="K132" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="39">
@@ -5283,7 +5286,7 @@
         <v>38930</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C134" s="13">
         <v>1.25</v>
@@ -5307,7 +5310,7 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
@@ -5329,7 +5332,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -5345,13 +5348,13 @@
       <c r="I136" s="13"/>
       <c r="J136" s="11"/>
       <c r="K136" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="39">
@@ -5374,7 +5377,7 @@
         <v>38961</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C138" s="13">
         <v>1.25</v>
@@ -5398,7 +5401,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="39">
@@ -5421,7 +5424,7 @@
         <v>38991</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C140" s="13">
         <v>1.25</v>
@@ -5446,7 +5449,7 @@
         <v>39022</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C141" s="13">
         <v>1.25</v>
@@ -5471,7 +5474,7 @@
         <v>39052</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -5489,13 +5492,13 @@
       <c r="I142" s="13"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="39">
@@ -5514,7 +5517,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5535,7 +5538,7 @@
         <v>39083</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C145" s="13">
         <v>1.25</v>
@@ -5560,7 +5563,7 @@
         <v>39114</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -5585,7 +5588,7 @@
         <v>39142</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C147" s="13">
         <v>1.25</v>
@@ -5610,7 +5613,7 @@
         <v>39173</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C148" s="13">
         <v>1.25</v>
@@ -5634,7 +5637,7 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="39">
@@ -5657,7 +5660,7 @@
         <v>39203</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C150" s="13">
         <v>1.25</v>
@@ -5681,7 +5684,7 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="39"/>
@@ -5703,7 +5706,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="39">
@@ -5726,7 +5729,7 @@
         <v>39234</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -5751,7 +5754,7 @@
         <v>39264</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
@@ -5769,13 +5772,13 @@
       <c r="I154" s="13"/>
       <c r="J154" s="11"/>
       <c r="K154" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="39">
@@ -5798,7 +5801,7 @@
         <v>39295</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C156" s="13">
         <v>1.25</v>
@@ -5816,13 +5819,13 @@
       <c r="I156" s="13"/>
       <c r="J156" s="11"/>
       <c r="K156" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="39">
@@ -5845,7 +5848,7 @@
         <v>39326</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C158" s="13">
         <v>1.25</v>
@@ -5870,7 +5873,7 @@
         <v>39356</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C159" s="13">
         <v>1.25</v>
@@ -5895,7 +5898,7 @@
         <v>39387</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C160" s="13">
         <v>1.25</v>
@@ -5913,13 +5916,13 @@
       <c r="I160" s="13"/>
       <c r="J160" s="11"/>
       <c r="K160" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="39">
@@ -5935,13 +5938,13 @@
       <c r="I161" s="13"/>
       <c r="J161" s="11"/>
       <c r="K161" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="39"/>
@@ -5955,13 +5958,13 @@
       <c r="I162" s="13"/>
       <c r="J162" s="11"/>
       <c r="K162" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="39"/>
@@ -5975,13 +5978,13 @@
       <c r="I163" s="13"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="39">
@@ -6004,7 +6007,7 @@
         <v>39417</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C165" s="13">
         <v>1.25</v>
@@ -6025,7 +6028,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6046,7 +6049,7 @@
         <v>39448</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C167" s="13">
         <v>1.25</v>
@@ -6071,7 +6074,7 @@
         <v>39479</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C168" s="13">
         <v>1.25</v>
@@ -6096,7 +6099,7 @@
         <v>39508</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C169" s="13">
         <v>1.25</v>
@@ -6121,7 +6124,7 @@
         <v>39539</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C170" s="13">
         <v>1.25</v>
@@ -6146,7 +6149,7 @@
         <v>39569</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C171" s="13">
         <v>1.25</v>
@@ -6170,7 +6173,7 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="39"/>
@@ -6186,13 +6189,13 @@
       <c r="I172" s="13"/>
       <c r="J172" s="11"/>
       <c r="K172" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="39"/>
@@ -6208,13 +6211,13 @@
       <c r="I173" s="13"/>
       <c r="J173" s="11"/>
       <c r="K173" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="39">
@@ -6237,7 +6240,7 @@
         <v>39600</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C175" s="13">
         <v>1.25</v>
@@ -6261,7 +6264,7 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="39">
@@ -6284,7 +6287,7 @@
         <v>39630</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C177" s="13">
         <v>1.25</v>
@@ -6308,7 +6311,7 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="39"/>
@@ -6330,7 +6333,7 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="39">
@@ -6353,7 +6356,7 @@
         <v>39661</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C180" s="13">
         <v>1.25</v>
@@ -6375,7 +6378,7 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="39">
@@ -6398,7 +6401,7 @@
         <v>39692</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C182" s="13">
         <v>1.25</v>
@@ -6422,7 +6425,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="39">
@@ -6445,7 +6448,7 @@
         <v>39722</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C184" s="13">
         <v>1.25</v>
@@ -6463,13 +6466,13 @@
       <c r="I184" s="13"/>
       <c r="J184" s="11"/>
       <c r="K184" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="39"/>
@@ -6491,7 +6494,7 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C186" s="13"/>
       <c r="D186" s="39">
@@ -6514,7 +6517,7 @@
         <v>39753</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C187" s="13">
         <v>1.25</v>
@@ -6532,13 +6535,13 @@
       <c r="I187" s="13"/>
       <c r="J187" s="11"/>
       <c r="K187" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="39">
@@ -6554,13 +6557,13 @@
       <c r="I188" s="13"/>
       <c r="J188" s="11"/>
       <c r="K188" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C189" s="13"/>
       <c r="D189" s="39"/>
@@ -6574,13 +6577,13 @@
       <c r="I189" s="13"/>
       <c r="J189" s="11"/>
       <c r="K189" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="39">
@@ -6603,7 +6606,7 @@
         <v>39783</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C191" s="13">
         <v>1.25</v>
@@ -6624,7 +6627,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -6645,7 +6648,7 @@
         <v>39814</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C193" s="13">
         <v>1.25</v>
@@ -6669,7 +6672,7 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="39">
@@ -6692,7 +6695,7 @@
         <v>39845</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C195" s="13">
         <v>1.25</v>
@@ -6716,7 +6719,7 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="39"/>
@@ -6738,7 +6741,7 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="39">
@@ -6761,7 +6764,7 @@
         <v>39873</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C198" s="13">
         <v>1.25</v>
@@ -6785,7 +6788,7 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C199" s="13"/>
       <c r="D199" s="39">
@@ -6807,7 +6810,7 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="39"/>
@@ -6829,7 +6832,7 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="39"/>
@@ -6851,7 +6854,7 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="39">
@@ -6874,7 +6877,7 @@
         <v>39904</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C203" s="13">
         <v>1.25</v>
@@ -6898,7 +6901,7 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="39">
@@ -6921,7 +6924,7 @@
         <v>39934</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C205" s="13">
         <v>1.25</v>
@@ -6945,7 +6948,7 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C206" s="13"/>
       <c r="D206" s="39"/>
@@ -6967,7 +6970,7 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C207" s="13"/>
       <c r="D207" s="39">
@@ -6990,7 +6993,7 @@
         <v>39965</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C208" s="13">
         <v>1.25</v>
@@ -7014,7 +7017,7 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="39"/>
@@ -7036,7 +7039,7 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="39">
@@ -7059,7 +7062,7 @@
         <v>39995</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C211" s="13">
         <v>1.25</v>
@@ -7077,13 +7080,13 @@
       <c r="I211" s="13"/>
       <c r="J211" s="11"/>
       <c r="K211" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="39"/>
@@ -7099,13 +7102,13 @@
       <c r="I212" s="13"/>
       <c r="J212" s="11"/>
       <c r="K212" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="39">
@@ -7128,7 +7131,7 @@
         <v>40026</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C214" s="13">
         <v>1.25</v>
@@ -7152,7 +7155,7 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C215" s="13"/>
       <c r="D215" s="39"/>
@@ -7174,7 +7177,7 @@
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C216" s="13"/>
       <c r="D216" s="39">
@@ -7197,7 +7200,7 @@
         <v>40057</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C217" s="13">
         <v>1.25</v>
@@ -7221,7 +7224,7 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C218" s="13"/>
       <c r="D218" s="39">
@@ -7244,7 +7247,7 @@
         <v>40087</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C219" s="13">
         <v>1.25</v>
@@ -7268,7 +7271,7 @@
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C220" s="13"/>
       <c r="D220" s="39"/>
@@ -7290,7 +7293,7 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="39"/>
@@ -7312,7 +7315,7 @@
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="39">
@@ -7335,7 +7338,7 @@
         <v>40118</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C223" s="13">
         <v>1.25</v>
@@ -7359,7 +7362,7 @@
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C224" s="13"/>
       <c r="D224" s="39"/>
@@ -7373,13 +7376,13 @@
       <c r="I224" s="13"/>
       <c r="J224" s="11"/>
       <c r="K224" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="39">
@@ -7402,7 +7405,7 @@
         <v>40148</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C226" s="13">
         <v>1.25</v>
@@ -7423,7 +7426,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -7444,7 +7447,7 @@
         <v>40179</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C228" s="13">
         <v>1.25</v>
@@ -7469,7 +7472,7 @@
         <v>40210</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C229" s="13">
         <v>1.25</v>
@@ -7493,7 +7496,7 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C230" s="13"/>
       <c r="D230" s="39">
@@ -7516,7 +7519,7 @@
         <v>40238</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C231" s="13">
         <v>1.25</v>
@@ -7540,7 +7543,7 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C232" s="13"/>
       <c r="D232" s="39"/>
@@ -7562,7 +7565,7 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="39"/>
@@ -7584,7 +7587,7 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="39">
@@ -7607,7 +7610,7 @@
         <v>40269</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C235" s="13">
         <v>1.25</v>
@@ -7631,7 +7634,7 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C236" s="13"/>
       <c r="D236" s="39"/>
@@ -7653,7 +7656,7 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="39">
@@ -7676,7 +7679,7 @@
         <v>40299</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C238" s="13">
         <v>1.25</v>
@@ -7700,7 +7703,7 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C239" s="13"/>
       <c r="D239" s="39">
@@ -7723,7 +7726,7 @@
         <v>40330</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C240" s="13">
         <v>1.25</v>
@@ -7741,13 +7744,13 @@
       <c r="I240" s="13"/>
       <c r="J240" s="11"/>
       <c r="K240" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C241" s="13"/>
       <c r="D241" s="39"/>
@@ -7763,13 +7766,13 @@
       <c r="I241" s="13"/>
       <c r="J241" s="11"/>
       <c r="K241" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C242" s="13"/>
       <c r="D242" s="39">
@@ -7792,7 +7795,7 @@
         <v>40360</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C243" s="13">
         <v>1.25</v>
@@ -7816,7 +7819,7 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C244" s="13"/>
       <c r="D244" s="39"/>
@@ -7838,7 +7841,7 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C245" s="13"/>
       <c r="D245" s="39"/>
@@ -7860,7 +7863,7 @@
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C246" s="13"/>
       <c r="D246" s="39"/>
@@ -7874,13 +7877,13 @@
       <c r="I246" s="13"/>
       <c r="J246" s="11"/>
       <c r="K246" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39">
@@ -7903,7 +7906,7 @@
         <v>40391</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C248" s="13">
         <v>1.25</v>
@@ -7927,7 +7930,7 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C249" s="13"/>
       <c r="D249" s="39"/>
@@ -7949,7 +7952,7 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C250" s="13"/>
       <c r="D250" s="39">
@@ -7972,7 +7975,7 @@
         <v>40422</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C251" s="13">
         <v>1.25</v>
@@ -7996,7 +7999,7 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C252" s="13"/>
       <c r="D252" s="39"/>
@@ -8012,13 +8015,13 @@
       <c r="I252" s="13"/>
       <c r="J252" s="11"/>
       <c r="K252" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C253" s="13"/>
       <c r="D253" s="39">
@@ -8041,7 +8044,7 @@
         <v>40452</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C254" s="13">
         <v>1.25</v>
@@ -8059,13 +8062,13 @@
       <c r="I254" s="13"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C255" s="13"/>
       <c r="D255" s="39">
@@ -8081,13 +8084,13 @@
       <c r="I255" s="13"/>
       <c r="J255" s="11"/>
       <c r="K255" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C256" s="13"/>
       <c r="D256" s="39"/>
@@ -8109,7 +8112,7 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C257" s="13"/>
       <c r="D257" s="39">
@@ -8132,7 +8135,7 @@
         <v>40483</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C258" s="13">
         <v>1.25</v>
@@ -8150,13 +8153,13 @@
       <c r="I258" s="13"/>
       <c r="J258" s="11"/>
       <c r="K258" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C259" s="13"/>
       <c r="D259" s="39">
@@ -8179,7 +8182,7 @@
         <v>40513</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C260" s="13">
         <v>1.25</v>
@@ -8203,7 +8206,7 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C261" s="13"/>
       <c r="D261" s="39">
@@ -8222,7 +8225,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -8243,7 +8246,7 @@
         <v>40544</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C263" s="13">
         <v>1.25</v>
@@ -8267,7 +8270,7 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C264" s="13"/>
       <c r="D264" s="39"/>
@@ -8289,7 +8292,7 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C265" s="13"/>
       <c r="D265" s="39">
@@ -8312,7 +8315,7 @@
         <v>40575</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C266" s="13">
         <v>1.25</v>
@@ -8328,13 +8331,13 @@
       <c r="I266" s="13"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C267" s="13"/>
       <c r="D267" s="39">
@@ -8357,7 +8360,7 @@
         <v>40603</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C268" s="13">
         <v>1.25</v>
@@ -8381,7 +8384,7 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="39"/>
@@ -8403,7 +8406,7 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C270" s="13"/>
       <c r="D270" s="39">
@@ -8426,7 +8429,7 @@
         <v>40634</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C271" s="13">
         <v>1.25</v>
@@ -8451,7 +8454,7 @@
         <v>40664</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C272" s="13">
         <v>1.25</v>
@@ -8475,7 +8478,7 @@
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="39"/>
@@ -8491,13 +8494,13 @@
       <c r="I273" s="13"/>
       <c r="J273" s="11"/>
       <c r="K273" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C274" s="13"/>
       <c r="D274" s="39"/>
@@ -8519,7 +8522,7 @@
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39">
@@ -8542,7 +8545,7 @@
         <v>40695</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C276" s="13">
         <v>1.25</v>
@@ -8566,7 +8569,7 @@
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C277" s="13"/>
       <c r="D277" s="39"/>
@@ -8588,7 +8591,7 @@
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C278" s="13"/>
       <c r="D278" s="39"/>
@@ -8610,7 +8613,7 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="39">
@@ -8633,7 +8636,7 @@
         <v>40725</v>
       </c>
       <c r="B280" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C280" s="13">
         <v>1.25</v>
@@ -8657,7 +8660,7 @@
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="39"/>
@@ -8671,13 +8674,13 @@
       <c r="I281" s="13"/>
       <c r="J281" s="11"/>
       <c r="K281" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C282" s="13"/>
       <c r="D282" s="39">
@@ -8721,7 +8724,7 @@
         <v>40787</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C284" s="13">
         <v>1.25</v>
@@ -8739,7 +8742,7 @@
       <c r="I284" s="13"/>
       <c r="J284" s="11"/>
       <c r="K284" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -8748,7 +8751,7 @@
         <v>40817</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C285" s="13">
         <v>1.25</v>
@@ -8766,13 +8769,13 @@
       <c r="I285" s="13"/>
       <c r="J285" s="11"/>
       <c r="K285" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C286" s="13"/>
       <c r="D286" s="39"/>
@@ -8794,7 +8797,7 @@
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C287" s="13"/>
       <c r="D287" s="39">
@@ -8817,7 +8820,7 @@
         <v>40848</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C288" s="13">
         <v>1.25</v>
@@ -8842,7 +8845,7 @@
         <v>40878</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C289" s="13">
         <v>1.25</v>
@@ -8858,13 +8861,13 @@
       <c r="I289" s="13"/>
       <c r="J289" s="11"/>
       <c r="K289" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C290" s="13"/>
       <c r="D290" s="39">
@@ -8883,7 +8886,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -8904,7 +8907,7 @@
         <v>40909</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C292" s="13">
         <v>1.25</v>
@@ -8928,7 +8931,7 @@
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C293" s="13"/>
       <c r="D293" s="39">
@@ -8951,7 +8954,7 @@
         <v>40940</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C294" s="13">
         <v>1.25</v>
@@ -8969,13 +8972,13 @@
       <c r="I294" s="13"/>
       <c r="J294" s="11"/>
       <c r="K294" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="39"/>
@@ -8997,7 +9000,7 @@
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="39">
@@ -9020,7 +9023,7 @@
         <v>40969</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C297" s="13">
         <v>1.25</v>
@@ -9038,13 +9041,13 @@
       <c r="I297" s="13"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39"/>
@@ -9066,7 +9069,7 @@
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C299" s="13"/>
       <c r="D299" s="39">
@@ -9089,7 +9092,7 @@
         <v>41000</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C300" s="13">
         <v>1.25</v>
@@ -9107,13 +9110,13 @@
       <c r="I300" s="13"/>
       <c r="J300" s="11"/>
       <c r="K300" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="39"/>
@@ -9129,13 +9132,13 @@
       <c r="I301" s="13"/>
       <c r="J301" s="11"/>
       <c r="K301" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C302" s="13"/>
       <c r="D302" s="39">
@@ -9158,7 +9161,7 @@
         <v>41030</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C303" s="13">
         <v>1.25</v>
@@ -9182,7 +9185,7 @@
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C304" s="13"/>
       <c r="D304" s="39"/>
@@ -9204,7 +9207,7 @@
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="39">
@@ -9227,7 +9230,7 @@
         <v>41061</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C306" s="13">
         <v>1.25</v>
@@ -9251,7 +9254,7 @@
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C307" s="13"/>
       <c r="D307" s="39">
@@ -9274,7 +9277,7 @@
         <v>41091</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C308" s="13">
         <v>1.25</v>
@@ -9292,13 +9295,13 @@
       <c r="I308" s="13"/>
       <c r="J308" s="11"/>
       <c r="K308" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
@@ -9312,13 +9315,13 @@
       <c r="I309" s="13"/>
       <c r="J309" s="11"/>
       <c r="K309" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39"/>
@@ -9340,7 +9343,7 @@
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C311" s="13"/>
       <c r="D311" s="39">
@@ -9363,7 +9366,7 @@
         <v>41122</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C312" s="13">
         <v>1.25</v>
@@ -9388,7 +9391,7 @@
         <v>41153</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C313" s="13">
         <v>1.25</v>
@@ -9406,13 +9409,13 @@
       <c r="I313" s="13"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C314" s="13"/>
       <c r="D314" s="39">
@@ -9428,13 +9431,13 @@
       <c r="I314" s="13"/>
       <c r="J314" s="11"/>
       <c r="K314" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C315" s="13"/>
       <c r="D315" s="39">
@@ -9457,7 +9460,7 @@
         <v>41183</v>
       </c>
       <c r="B316" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C316" s="13">
         <v>1.25</v>
@@ -9481,7 +9484,7 @@
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C317" s="13"/>
       <c r="D317" s="39"/>
@@ -9497,13 +9500,13 @@
       <c r="I317" s="13"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C318" s="13"/>
       <c r="D318" s="39">
@@ -9526,7 +9529,7 @@
         <v>41214</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C319" s="13">
         <v>1.25</v>
@@ -9551,7 +9554,7 @@
         <v>41244</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C320" s="13">
         <v>1.25</v>
@@ -9567,13 +9570,13 @@
       <c r="I320" s="13"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39">
@@ -9589,13 +9592,13 @@
       <c r="I321" s="13"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C322" s="13"/>
       <c r="D322" s="39">
@@ -9614,7 +9617,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -9635,7 +9638,7 @@
         <v>41275</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C324" s="13">
         <v>1.25</v>
@@ -9660,7 +9663,7 @@
         <v>41306</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C325" s="13">
         <v>1.25</v>
@@ -9684,7 +9687,7 @@
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C326" s="13"/>
       <c r="D326" s="39"/>
@@ -9706,7 +9709,7 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C327" s="13"/>
       <c r="D327" s="39">
@@ -9729,7 +9732,7 @@
         <v>41334</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C328" s="13">
         <v>1.25</v>
@@ -9753,7 +9756,7 @@
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C329" s="13"/>
       <c r="D329" s="39"/>
@@ -9775,7 +9778,7 @@
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="39">
@@ -9798,7 +9801,7 @@
         <v>41365</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C331" s="13">
         <v>1.25</v>
@@ -9816,13 +9819,13 @@
       <c r="I331" s="13"/>
       <c r="J331" s="11"/>
       <c r="K331" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C332" s="13"/>
       <c r="D332" s="39">
@@ -9845,7 +9848,7 @@
         <v>41395</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C333" s="13">
         <v>1.25</v>
@@ -9870,7 +9873,7 @@
         <v>41426</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C334" s="13">
         <v>1.25</v>
@@ -9894,7 +9897,7 @@
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C335" s="13"/>
       <c r="D335" s="39"/>
@@ -9908,13 +9911,13 @@
       <c r="I335" s="13"/>
       <c r="J335" s="11"/>
       <c r="K335" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C336" s="13"/>
       <c r="D336" s="39"/>
@@ -9928,13 +9931,13 @@
       <c r="I336" s="13"/>
       <c r="J336" s="11"/>
       <c r="K336" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C337" s="13"/>
       <c r="D337" s="39">
@@ -9957,7 +9960,7 @@
         <v>41456</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C338" s="13">
         <v>1.25</v>
@@ -9982,7 +9985,7 @@
         <v>41487</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C339" s="13">
         <v>1.25</v>
@@ -10006,7 +10009,7 @@
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C340" s="13"/>
       <c r="D340" s="39"/>
@@ -10028,7 +10031,7 @@
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C341" s="13"/>
       <c r="D341" s="39">
@@ -10051,7 +10054,7 @@
         <v>41518</v>
       </c>
       <c r="B342" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C342" s="13">
         <v>1.25</v>
@@ -10075,7 +10078,7 @@
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C343" s="13"/>
       <c r="D343" s="39">
@@ -10098,7 +10101,7 @@
         <v>41548</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C344" s="13">
         <v>1.25</v>
@@ -10122,7 +10125,7 @@
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C345" s="13"/>
       <c r="D345" s="39">
@@ -10138,13 +10141,13 @@
       <c r="I345" s="13"/>
       <c r="J345" s="11"/>
       <c r="K345" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C346" s="13"/>
       <c r="D346" s="39">
@@ -10167,7 +10170,7 @@
         <v>41579</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C347" s="13">
         <v>1.25</v>
@@ -10192,7 +10195,7 @@
         <v>41609</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C348" s="13">
         <v>1.25</v>
@@ -10214,7 +10217,7 @@
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C349" s="13"/>
       <c r="D349" s="39">
@@ -10233,7 +10236,7 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -10254,7 +10257,7 @@
         <v>41640</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C351" s="13">
         <v>1.25</v>
@@ -10279,7 +10282,7 @@
         <v>41671</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C352" s="13">
         <v>1.25</v>
@@ -10304,7 +10307,7 @@
         <v>41699</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C353" s="13">
         <v>1.25</v>
@@ -10329,7 +10332,7 @@
         <v>41730</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C354" s="13">
         <v>1.25</v>
@@ -10354,7 +10357,7 @@
         <v>41760</v>
       </c>
       <c r="B355" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C355" s="13">
         <v>1.25</v>
@@ -10378,7 +10381,7 @@
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C356" s="13"/>
       <c r="D356" s="39">
@@ -10401,7 +10404,7 @@
         <v>41791</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C357" s="13">
         <v>1.25</v>
@@ -10419,13 +10422,13 @@
       <c r="I357" s="13"/>
       <c r="J357" s="11"/>
       <c r="K357" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C358" s="13"/>
       <c r="D358" s="39">
@@ -10448,7 +10451,7 @@
         <v>41821</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C359" s="13">
         <v>1.25</v>
@@ -10472,7 +10475,7 @@
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -10494,7 +10497,7 @@
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C361" s="13"/>
       <c r="D361" s="39">
@@ -10517,7 +10520,7 @@
         <v>41852</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C362" s="13">
         <v>1.25</v>
@@ -10535,13 +10538,13 @@
       <c r="I362" s="13"/>
       <c r="J362" s="11"/>
       <c r="K362" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C363" s="13"/>
       <c r="D363" s="39">
@@ -10564,7 +10567,7 @@
         <v>41883</v>
       </c>
       <c r="B364" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C364" s="13">
         <v>1.25</v>
@@ -10588,7 +10591,7 @@
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C365" s="13"/>
       <c r="D365" s="39"/>
@@ -10604,13 +10607,13 @@
       <c r="I365" s="13"/>
       <c r="J365" s="11"/>
       <c r="K365" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C366" s="13"/>
       <c r="D366" s="39">
@@ -10633,7 +10636,7 @@
         <v>41913</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C367" s="13">
         <v>1.25</v>
@@ -10651,13 +10654,13 @@
       <c r="I367" s="13"/>
       <c r="J367" s="11"/>
       <c r="K367" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C368" s="13"/>
       <c r="D368" s="39">
@@ -10680,7 +10683,7 @@
         <v>41944</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C369" s="13">
         <v>1.25</v>
@@ -10705,7 +10708,7 @@
         <v>41974</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C370" s="13">
         <v>1.25</v>
@@ -10727,7 +10730,7 @@
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C371" s="13"/>
       <c r="D371" s="39">
@@ -10746,7 +10749,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10767,7 +10770,7 @@
         <v>42005</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C373" s="13">
         <v>1.25</v>
@@ -10792,7 +10795,7 @@
         <v>42036</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C374" s="13">
         <v>1.25</v>
@@ -10817,7 +10820,7 @@
         <v>42064</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C375" s="13">
         <v>1.25</v>
@@ -10835,13 +10838,13 @@
       <c r="I375" s="13"/>
       <c r="J375" s="11"/>
       <c r="K375" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C376" s="13"/>
       <c r="D376" s="39">
@@ -10864,7 +10867,7 @@
         <v>42095</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C377" s="13">
         <v>1.25</v>
@@ -10888,7 +10891,7 @@
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C378" s="13"/>
       <c r="D378" s="39">
@@ -10911,7 +10914,7 @@
         <v>42125</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C379" s="13">
         <v>1.25</v>
@@ -10935,7 +10938,7 @@
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C380" s="13"/>
       <c r="D380" s="39"/>
@@ -10949,13 +10952,13 @@
       <c r="I380" s="13"/>
       <c r="J380" s="11"/>
       <c r="K380" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C381" s="13"/>
       <c r="D381" s="39"/>
@@ -10977,7 +10980,7 @@
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C382" s="13"/>
       <c r="D382" s="39">
@@ -11000,7 +11003,7 @@
         <v>42156</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C383" s="13">
         <v>1.25</v>
@@ -11018,13 +11021,13 @@
       <c r="I383" s="13"/>
       <c r="J383" s="11"/>
       <c r="K383" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C384" s="13"/>
       <c r="D384" s="39">
@@ -11047,7 +11050,7 @@
         <v>42186</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C385" s="13">
         <v>1.25</v>
@@ -11071,7 +11074,7 @@
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C386" s="13"/>
       <c r="D386" s="39"/>
@@ -11093,7 +11096,7 @@
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C387" s="13"/>
       <c r="D387" s="39">
@@ -11116,7 +11119,7 @@
         <v>42217</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C388" s="13">
         <v>1.25</v>
@@ -11140,7 +11143,7 @@
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C389" s="13"/>
       <c r="D389" s="39">
@@ -11163,7 +11166,7 @@
         <v>42248</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C390" s="13">
         <v>1.25</v>
@@ -11187,7 +11190,7 @@
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C391" s="13"/>
       <c r="D391" s="39">
@@ -11210,7 +11213,7 @@
         <v>42278</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C392" s="13">
         <v>1.25</v>
@@ -11228,13 +11231,13 @@
       <c r="I392" s="13"/>
       <c r="J392" s="11"/>
       <c r="K392" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C393" s="13"/>
       <c r="D393" s="39">
@@ -11257,7 +11260,7 @@
         <v>42309</v>
       </c>
       <c r="B394" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C394" s="13">
         <v>1.25</v>
@@ -11275,13 +11278,13 @@
       <c r="I394" s="13"/>
       <c r="J394" s="11"/>
       <c r="K394" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C395" s="13"/>
       <c r="D395" s="39">
@@ -11297,13 +11300,13 @@
       <c r="I395" s="13"/>
       <c r="J395" s="11"/>
       <c r="K395" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C396" s="13"/>
       <c r="D396" s="39">
@@ -11326,7 +11329,7 @@
         <v>42339</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C397" s="13">
         <v>1.25</v>
@@ -11350,7 +11353,7 @@
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C398" s="13"/>
       <c r="D398" s="39">
@@ -11369,7 +11372,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -11390,7 +11393,7 @@
         <v>42370</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C400" s="13">
         <v>1.25</v>
@@ -11415,7 +11418,7 @@
         <v>42401</v>
       </c>
       <c r="B401" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C401" s="13">
         <v>1.25</v>
@@ -11440,7 +11443,7 @@
         <v>42430</v>
       </c>
       <c r="B402" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C402" s="13">
         <v>1.25</v>
@@ -11458,13 +11461,13 @@
       <c r="I402" s="13"/>
       <c r="J402" s="11"/>
       <c r="K402" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C403" s="13"/>
       <c r="D403" s="39">
@@ -11487,7 +11490,7 @@
         <v>42461</v>
       </c>
       <c r="B404" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C404" s="13">
         <v>1.25</v>
@@ -11512,7 +11515,7 @@
         <v>42491</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C405" s="13">
         <v>1.25</v>
@@ -11536,7 +11539,7 @@
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C406" s="13"/>
       <c r="D406" s="39">
@@ -11559,7 +11562,7 @@
         <v>42522</v>
       </c>
       <c r="B407" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C407" s="13">
         <v>1.25</v>
@@ -11584,7 +11587,7 @@
         <v>42552</v>
       </c>
       <c r="B408" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C408" s="13">
         <v>1.25</v>
@@ -11608,7 +11611,7 @@
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C409" s="13"/>
       <c r="D409" s="39"/>
@@ -11630,7 +11633,7 @@
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C410" s="13"/>
       <c r="D410" s="39">
@@ -11653,7 +11656,7 @@
         <v>42583</v>
       </c>
       <c r="B411" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C411" s="13">
         <v>1.25</v>
@@ -11678,7 +11681,7 @@
         <v>42614</v>
       </c>
       <c r="B412" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C412" s="13">
         <v>1.25</v>
@@ -11696,13 +11699,13 @@
       <c r="I412" s="13"/>
       <c r="J412" s="11"/>
       <c r="K412" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C413" s="13"/>
       <c r="D413" s="39">
@@ -11746,7 +11749,7 @@
         <v>42675</v>
       </c>
       <c r="B415" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C415" s="13">
         <v>1.25</v>
@@ -11771,7 +11774,7 @@
         <v>42705</v>
       </c>
       <c r="B416" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C416" s="13">
         <v>1.25</v>
@@ -11795,7 +11798,7 @@
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C417" s="13"/>
       <c r="D417" s="39">
@@ -11815,7 +11818,7 @@
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23"/>
       <c r="B418" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C418" s="13"/>
       <c r="D418" s="39">
@@ -11834,7 +11837,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11918,7 +11921,7 @@
         <v>42826</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C423" s="13">
         <v>1.25</v>
@@ -11936,13 +11939,13 @@
       <c r="I423" s="13"/>
       <c r="J423" s="11"/>
       <c r="K423" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C424" s="13"/>
       <c r="D424" s="39"/>
@@ -11956,7 +11959,7 @@
       <c r="I424" s="13"/>
       <c r="J424" s="11"/>
       <c r="K424" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
@@ -11965,7 +11968,7 @@
         <v>42856</v>
       </c>
       <c r="B425" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C425" s="13">
         <v>1.25</v>
@@ -12013,7 +12016,7 @@
         <v>42917</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C427" s="13">
         <v>1.25</v>
@@ -12029,7 +12032,7 @@
       <c r="I427" s="13"/>
       <c r="J427" s="11"/>
       <c r="K427" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
@@ -12038,7 +12041,7 @@
         <v>42948</v>
       </c>
       <c r="B428" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C428" s="13">
         <v>1.25</v>
@@ -12065,7 +12068,7 @@
         <v>42979</v>
       </c>
       <c r="B429" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C429" s="13">
         <v>1.25</v>
@@ -12083,13 +12086,13 @@
       <c r="I429" s="13"/>
       <c r="J429" s="11"/>
       <c r="K429" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C430" s="13"/>
       <c r="D430" s="39"/>
@@ -12111,7 +12114,7 @@
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C431" s="13"/>
       <c r="D431" s="39">
@@ -12127,13 +12130,13 @@
       <c r="I431" s="13"/>
       <c r="J431" s="11"/>
       <c r="K431" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C432" s="13"/>
       <c r="D432" s="39"/>
@@ -12200,7 +12203,7 @@
         <v>43070</v>
       </c>
       <c r="B435" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C435" s="13">
         <v>1.25</v>
@@ -12510,7 +12513,7 @@
         <v>43435</v>
       </c>
       <c r="B449" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C449" s="13">
         <v>1.25</v>
@@ -12534,7 +12537,7 @@
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C450" s="13">
         <v>1.25</v>
@@ -12902,7 +12905,7 @@
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C467" s="13"/>
       <c r="D467" s="39">
@@ -12924,7 +12927,7 @@
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C468" s="13"/>
       <c r="D468" s="39">
@@ -13158,7 +13161,7 @@
         <v>44013</v>
       </c>
       <c r="B479" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C479" s="13">
         <v>1.25</v>
@@ -13176,7 +13179,7 @@
       <c r="I479" s="9"/>
       <c r="J479" s="11"/>
       <c r="K479" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
@@ -13264,7 +13267,7 @@
         <v>44166</v>
       </c>
       <c r="B484" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C484" s="13">
         <v>1.25</v>
@@ -13285,7 +13288,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -13446,7 +13449,7 @@
         <v>44409</v>
       </c>
       <c r="B493" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C493" s="13">
         <v>1.25</v>
@@ -13464,7 +13467,7 @@
       <c r="I493" s="9"/>
       <c r="J493" s="11"/>
       <c r="K493" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
@@ -13472,7 +13475,7 @@
         <v>44440</v>
       </c>
       <c r="B494" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C494" s="13">
         <v>1.25</v>
@@ -13488,7 +13491,7 @@
       <c r="I494" s="9"/>
       <c r="J494" s="11"/>
       <c r="K494" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
@@ -13536,7 +13539,7 @@
         <v>44531</v>
       </c>
       <c r="B497" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C497" s="13">
         <v>1.25</v>
@@ -13557,7 +13560,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -13682,7 +13685,7 @@
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
       <c r="K503" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
@@ -13690,7 +13693,7 @@
         <v>44713</v>
       </c>
       <c r="B504" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C504" s="13"/>
       <c r="D504" s="39"/>
@@ -13706,7 +13709,7 @@
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
       <c r="K504" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
@@ -13728,7 +13731,7 @@
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
       <c r="K505" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
@@ -13774,13 +13777,13 @@
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
       <c r="K507" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C508" s="13"/>
       <c r="D508" s="39"/>
@@ -13796,7 +13799,7 @@
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
       <c r="K508" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
@@ -13804,7 +13807,7 @@
         <v>44805</v>
       </c>
       <c r="B509" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C509" s="13">
         <v>1.25</v>
@@ -13822,7 +13825,7 @@
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
       <c r="K509" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
@@ -13898,7 +13901,7 @@
         <v>44896</v>
       </c>
       <c r="B513" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C513" s="13">
         <v>1.25</v>
@@ -13916,13 +13919,13 @@
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
       <c r="K513" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C514" s="13"/>
       <c r="D514" s="39">
@@ -13938,12 +13941,12 @@
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
       <c r="K514" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -13984,7 +13987,7 @@
         <v>44958</v>
       </c>
       <c r="B517" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C517" s="13">
         <v>1.25</v>
@@ -14002,7 +14005,7 @@
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
       <c r="K517" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
@@ -14108,13 +14111,15 @@
       <c r="B522" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C522" s="13"/>
+      <c r="C522" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D522" s="39"/>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G522" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H522" s="39">
         <v>1</v>
@@ -14126,10 +14131,10 @@
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A523" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B523" s="20"/>
+      <c r="A523" s="40"/>
+      <c r="B523" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
       <c r="E523" s="9"/>
@@ -14138,16 +14143,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H523" s="39"/>
+      <c r="H523" s="39">
+        <v>2</v>
+      </c>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="20"/>
+      <c r="K523" s="48" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B524" s="20"/>
+      <c r="A524" s="40"/>
+      <c r="B524" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C524" s="13"/>
       <c r="D524" s="39"/>
       <c r="E524" s="9"/>
@@ -14156,14 +14165,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H524" s="39"/>
+      <c r="H524" s="39">
+        <v>1</v>
+      </c>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="20"/>
+      <c r="K524" s="48">
+        <v>45072</v>
+      </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -14181,7 +14194,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -14199,7 +14212,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -14217,7 +14230,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14235,7 +14248,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -14253,7 +14266,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -14271,7 +14284,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -14289,7 +14302,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -14307,7 +14320,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14325,7 +14338,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -14343,7 +14356,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14361,7 +14374,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14379,7 +14392,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14397,7 +14410,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14415,7 +14428,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14433,7 +14446,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14451,7 +14464,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14469,7 +14482,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14487,7 +14500,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14505,7 +14518,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14523,7 +14536,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14541,7 +14554,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14559,7 +14572,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14577,7 +14590,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14595,7 +14608,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14613,7 +14626,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14631,7 +14644,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14649,7 +14662,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -14667,7 +14680,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -14684,7 +14697,9 @@
       <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="40"/>
+      <c r="A554" s="40">
+        <v>45962</v>
+      </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
       <c r="D554" s="39"/>
@@ -14700,7 +14715,9 @@
       <c r="K554" s="20"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40"/>
+      <c r="A555" s="40">
+        <v>45992</v>
+      </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
       <c r="D555" s="39"/>
@@ -14764,20 +14781,52 @@
       <c r="K558" s="20"/>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A559" s="41"/>
-      <c r="B559" s="15"/>
-      <c r="C559" s="42"/>
-      <c r="D559" s="43"/>
+      <c r="A559" s="40"/>
+      <c r="B559" s="20"/>
+      <c r="C559" s="13"/>
+      <c r="D559" s="39"/>
       <c r="E559" s="9"/>
-      <c r="F559" s="15"/>
+      <c r="F559" s="20"/>
       <c r="G559" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H559" s="43"/>
+      <c r="H559" s="39"/>
       <c r="I559" s="9"/>
-      <c r="J559" s="12"/>
-      <c r="K559" s="15"/>
+      <c r="J559" s="11"/>
+      <c r="K559" s="20"/>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" s="40"/>
+      <c r="B560" s="20"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="39"/>
+      <c r="E560" s="9"/>
+      <c r="F560" s="20"/>
+      <c r="G560" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H560" s="39"/>
+      <c r="I560" s="9"/>
+      <c r="J560" s="11"/>
+      <c r="K560" s="20"/>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" s="41"/>
+      <c r="B561" s="15"/>
+      <c r="C561" s="42"/>
+      <c r="D561" s="43"/>
+      <c r="E561" s="9"/>
+      <c r="F561" s="15"/>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H561" s="43"/>
+      <c r="I561" s="9"/>
+      <c r="J561" s="12"/>
+      <c r="K561" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/BAYOT, ANISIA.xlsx
+++ b/REGULAR/OJT/NEW DONE/BAYOT, ANISIA.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="378">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2221,9 +2221,9 @@
   <dimension ref="A2:K561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A508" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A511" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B525" sqref="B525"/>
+      <selection pane="bottomLeft" activeCell="K526" sqref="K526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,7 +2400,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>96.45799999999997</v>
+        <v>95.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14178,7 +14178,9 @@
       <c r="A525" s="40">
         <v>45078</v>
       </c>
-      <c r="B525" s="20"/>
+      <c r="B525" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C525" s="13"/>
       <c r="D525" s="39"/>
       <c r="E525" s="9"/>
@@ -14187,10 +14189,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H525" s="39"/>
+      <c r="H525" s="39">
+        <v>1</v>
+      </c>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="20"/>
+      <c r="K525" s="48">
+        <v>45096</v>
+      </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
